--- a/data modeling feb. 05, 2018--Physical.xlsx
+++ b/data modeling feb. 05, 2018--Physical.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19001"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MTCStudent\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MTCStudent\Desktop\ClassProject\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -491,12 +491,12 @@
           </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
-          <a:stCxn id="4" idx="1"/>
-          <a:endCxn id="3" idx="3"/>
+          <a:stCxn id="3" idx="3"/>
+          <a:endCxn id="4" idx="1"/>
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm flipH="1">
+        <a:xfrm flipV="1">
           <a:off x="6877050" y="3514725"/>
           <a:ext cx="1209675" cy="4762"/>
         </a:xfrm>
@@ -547,12 +547,12 @@
           </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
-          <a:stCxn id="5" idx="1"/>
-          <a:endCxn id="4" idx="3"/>
+          <a:stCxn id="4" idx="3"/>
+          <a:endCxn id="5" idx="1"/>
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm flipH="1" flipV="1">
+        <a:xfrm>
           <a:off x="10534650" y="3514725"/>
           <a:ext cx="447675" cy="9525"/>
         </a:xfrm>
@@ -800,12 +800,12 @@
           </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
-          <a:stCxn id="13" idx="1"/>
-          <a:endCxn id="12" idx="3"/>
+          <a:stCxn id="12" idx="3"/>
+          <a:endCxn id="13" idx="1"/>
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm flipH="1">
+        <a:xfrm flipV="1">
           <a:off x="7181850" y="1171575"/>
           <a:ext cx="1390650" cy="4763"/>
         </a:xfrm>
@@ -856,12 +856,12 @@
           </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
-          <a:stCxn id="3" idx="0"/>
-          <a:endCxn id="12" idx="2"/>
+          <a:stCxn id="12" idx="2"/>
+          <a:endCxn id="3" idx="0"/>
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm flipH="1" flipV="1">
+        <a:xfrm>
           <a:off x="5929313" y="1800225"/>
           <a:ext cx="9524" cy="971549"/>
         </a:xfrm>
@@ -1222,15 +1222,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>85726</xdr:colOff>
+      <xdr:colOff>85725</xdr:colOff>
       <xdr:row>6</xdr:row>
-      <xdr:rowOff>152401</xdr:rowOff>
+      <xdr:rowOff>152400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>123825</xdr:colOff>
+      <xdr:colOff>123824</xdr:colOff>
       <xdr:row>18</xdr:row>
-      <xdr:rowOff>90488</xdr:rowOff>
+      <xdr:rowOff>90487</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -1242,17 +1242,19 @@
           </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
-          <a:stCxn id="3" idx="1"/>
-          <a:endCxn id="40" idx="3"/>
+          <a:stCxn id="40" idx="3"/>
+          <a:endCxn id="3" idx="1"/>
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm rot="10800000">
-          <a:off x="3133726" y="1295401"/>
+        <a:xfrm>
+          <a:off x="3133725" y="1295400"/>
           <a:ext cx="1866899" cy="2224087"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector3">
-          <a:avLst/>
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 50000"/>
+          </a:avLst>
         </a:prstGeom>
         <a:ln>
           <a:tailEnd type="triangle"/>
@@ -1298,12 +1300,12 @@
           </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
-          <a:stCxn id="3" idx="1"/>
-          <a:endCxn id="42" idx="3"/>
+          <a:stCxn id="42" idx="3"/>
+          <a:endCxn id="3" idx="1"/>
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm flipH="1" flipV="1">
+        <a:xfrm>
           <a:off x="2800350" y="3476625"/>
           <a:ext cx="2200274" cy="42862"/>
         </a:xfrm>
@@ -1334,15 +1336,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>552450</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>180976</xdr:rowOff>
+      <xdr:colOff>568594</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>51823</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>361950</xdr:colOff>
+      <xdr:colOff>378094</xdr:colOff>
       <xdr:row>38</xdr:row>
-      <xdr:rowOff>47626</xdr:rowOff>
+      <xdr:rowOff>112202</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1357,8 +1359,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4819650" y="6467476"/>
-          <a:ext cx="2247900" cy="819150"/>
+          <a:off x="4862916" y="6638603"/>
+          <a:ext cx="2263398" cy="835294"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartProcess">
           <a:avLst/>
@@ -1781,16 +1783,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>600075</xdr:colOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>25</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>18</xdr:col>
-      <xdr:colOff>409575</xdr:colOff>
+      <xdr:colOff>419100</xdr:colOff>
       <xdr:row>30</xdr:row>
-      <xdr:rowOff>76199</xdr:rowOff>
+      <xdr:rowOff>95249</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1805,7 +1807,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9134475" y="4762500"/>
+          <a:off x="9144000" y="4781550"/>
           <a:ext cx="2247900" cy="1028699"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartProcess">
@@ -2003,15 +2005,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>523875</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
+      <xdr:colOff>346291</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>125439</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>419100</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
+      <xdr:colOff>241516</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>154014</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2026,8 +2028,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="523875" y="5172075"/>
-          <a:ext cx="2333625" cy="981075"/>
+          <a:off x="346291" y="5162388"/>
+          <a:ext cx="2349123" cy="997219"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartProcess">
           <a:avLst/>
@@ -2116,12 +2118,12 @@
           </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
-          <a:stCxn id="3" idx="2"/>
-          <a:endCxn id="44" idx="0"/>
+          <a:stCxn id="44" idx="0"/>
+          <a:endCxn id="3" idx="2"/>
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm>
+        <a:xfrm flipH="1" flipV="1">
           <a:off x="5938837" y="4267199"/>
           <a:ext cx="14288" cy="600075"/>
         </a:xfrm>
@@ -2151,16 +2153,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>590550</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>185737</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>457200</xdr:colOff>
-      <xdr:row>38</xdr:row>
-      <xdr:rowOff>47626</xdr:rowOff>
+      <xdr:colOff>466725</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>76199</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>473344</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>51822</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -2172,19 +2174,18 @@
           </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
-          <a:stCxn id="50" idx="2"/>
-          <a:endCxn id="44" idx="1"/>
+          <a:stCxn id="44" idx="2"/>
+          <a:endCxn id="50" idx="0"/>
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm rot="5400000" flipH="1">
-          <a:off x="4517230" y="5860257"/>
-          <a:ext cx="1766889" cy="1085850"/>
-        </a:xfrm>
-        <a:prstGeom prst="bentConnector4">
+        <a:xfrm rot="16200000" flipH="1">
+          <a:off x="5809765" y="6453752"/>
+          <a:ext cx="363081" cy="6619"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
           <a:avLst>
-            <a:gd name="adj1" fmla="val -12938"/>
-            <a:gd name="adj2" fmla="val 124561"/>
+            <a:gd name="adj1" fmla="val 50000"/>
           </a:avLst>
         </a:prstGeom>
         <a:ln>
@@ -2211,15 +2212,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>504824</xdr:colOff>
+      <xdr:colOff>504823</xdr:colOff>
       <xdr:row>18</xdr:row>
       <xdr:rowOff>90486</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>123824</xdr:colOff>
+      <xdr:colOff>123823</xdr:colOff>
       <xdr:row>43</xdr:row>
-      <xdr:rowOff>166687</xdr:rowOff>
+      <xdr:rowOff>168302</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -2231,18 +2232,18 @@
           </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
-          <a:stCxn id="3" idx="1"/>
-          <a:endCxn id="61" idx="1"/>
+          <a:stCxn id="61" idx="1"/>
+          <a:endCxn id="3" idx="1"/>
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm rot="10800000" flipV="1">
-          <a:off x="4772024" y="3519486"/>
-          <a:ext cx="228600" cy="4838701"/>
+        <a:xfrm rot="10800000" flipH="1">
+          <a:off x="4799145" y="3577605"/>
+          <a:ext cx="232475" cy="4921036"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector3">
           <a:avLst>
-            <a:gd name="adj1" fmla="val 200000"/>
+            <a:gd name="adj1" fmla="val -98333"/>
           </a:avLst>
         </a:prstGeom>
         <a:ln>
@@ -2269,15 +2270,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>471489</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>57149</xdr:rowOff>
+      <xdr:colOff>293904</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>154014</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>423863</xdr:colOff>
+      <xdr:colOff>423862</xdr:colOff>
       <xdr:row>47</xdr:row>
-      <xdr:rowOff>66674</xdr:rowOff>
+      <xdr:rowOff>66675</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -2289,18 +2290,18 @@
           </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
-          <a:stCxn id="63" idx="2"/>
-          <a:endCxn id="61" idx="2"/>
+          <a:stCxn id="61" idx="2"/>
+          <a:endCxn id="63" idx="2"/>
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm rot="16200000" flipH="1">
-          <a:off x="2366963" y="5476875"/>
-          <a:ext cx="2867025" cy="4219574"/>
+        <a:xfrm rot="5400000" flipH="1">
+          <a:off x="2226832" y="5453628"/>
+          <a:ext cx="3012322" cy="4424280"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector3">
           <a:avLst>
-            <a:gd name="adj1" fmla="val 107973"/>
+            <a:gd name="adj1" fmla="val -7589"/>
           </a:avLst>
         </a:prstGeom>
         <a:ln>
@@ -2382,9 +2383,9 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>504825</xdr:colOff>
+      <xdr:colOff>514350</xdr:colOff>
       <xdr:row>30</xdr:row>
-      <xdr:rowOff>76199</xdr:rowOff>
+      <xdr:rowOff>95249</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
@@ -2402,14 +2403,14 @@
           </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
-          <a:stCxn id="59" idx="2"/>
-          <a:endCxn id="52" idx="0"/>
+          <a:stCxn id="52" idx="0"/>
+          <a:endCxn id="59" idx="2"/>
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm>
-          <a:off x="10258425" y="5791199"/>
-          <a:ext cx="19050" cy="571500"/>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="10267950" y="5810249"/>
+          <a:ext cx="9525" cy="552450"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -2437,16 +2438,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>452437</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>104774</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>90486</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
       <xdr:colOff>390525</xdr:colOff>
       <xdr:row>53</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:rowOff>36486</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -2458,19 +2459,18 @@
           </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
-          <a:stCxn id="3" idx="0"/>
-          <a:endCxn id="54" idx="3"/>
+          <a:stCxn id="54" idx="3"/>
+          <a:endCxn id="3" idx="3"/>
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm rot="16200000" flipH="1">
-          <a:off x="2836068" y="5874543"/>
-          <a:ext cx="7362826" cy="1157288"/>
-        </a:xfrm>
-        <a:prstGeom prst="bentConnector4">
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="6919670" y="3577605"/>
+          <a:ext cx="219075" cy="6726508"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
           <a:avLst>
-            <a:gd name="adj1" fmla="val -3105"/>
-            <a:gd name="adj2" fmla="val 119753"/>
+            <a:gd name="adj1" fmla="val -104348"/>
           </a:avLst>
         </a:prstGeom>
         <a:ln>
@@ -2497,15 +2497,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>161925</xdr:colOff>
-      <xdr:row>50</xdr:row>
-      <xdr:rowOff>180975</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>457200</xdr:colOff>
-      <xdr:row>57</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
+      <xdr:colOff>339510</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>19535</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>21310</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>79913</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2520,8 +2520,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1381125" y="9705975"/>
-          <a:ext cx="2733675" cy="1200150"/>
+          <a:off x="1566459" y="10480891"/>
+          <a:ext cx="2749173" cy="1222751"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartProcess">
           <a:avLst/>
@@ -2611,16 +2611,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>457200</xdr:colOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>487149</xdr:colOff>
       <xdr:row>28</xdr:row>
-      <xdr:rowOff>185736</xdr:rowOff>
+      <xdr:rowOff>187351</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>590550</xdr:colOff>
+      <xdr:colOff>590551</xdr:colOff>
       <xdr:row>54</xdr:row>
-      <xdr:rowOff>19049</xdr:rowOff>
+      <xdr:rowOff>19535</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -2632,16 +2632,16 @@
           </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
-          <a:stCxn id="44" idx="1"/>
-          <a:endCxn id="121" idx="3"/>
+          <a:stCxn id="121" idx="0"/>
+          <a:endCxn id="44" idx="1"/>
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm rot="10800000" flipV="1">
-          <a:off x="4114800" y="5519736"/>
-          <a:ext cx="742950" cy="4786313"/>
-        </a:xfrm>
-        <a:prstGeom prst="bentConnector3">
+        <a:xfrm rot="5400000" flipH="1" flipV="1">
+          <a:off x="1478393" y="7074412"/>
+          <a:ext cx="4869133" cy="1943826"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector2">
           <a:avLst/>
         </a:prstGeom>
         <a:ln>
@@ -2670,7 +2670,7 @@
       <xdr:col>9</xdr:col>
       <xdr:colOff>457200</xdr:colOff>
       <xdr:row>46</xdr:row>
-      <xdr:rowOff>161926</xdr:rowOff>
+      <xdr:rowOff>163541</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
@@ -2688,19 +2688,19 @@
           </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
-          <a:stCxn id="56" idx="1"/>
-          <a:endCxn id="54" idx="2"/>
+          <a:stCxn id="54" idx="2"/>
+          <a:endCxn id="56" idx="1"/>
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm rot="10800000" flipV="1">
-          <a:off x="5943600" y="8924926"/>
-          <a:ext cx="3200400" cy="1914524"/>
+        <a:xfrm rot="5400000" flipH="1" flipV="1">
+          <a:off x="6617696" y="8435841"/>
+          <a:ext cx="1945198" cy="3223648"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector4">
           <a:avLst>
-            <a:gd name="adj1" fmla="val 31994"/>
-            <a:gd name="adj2" fmla="val 111940"/>
+            <a:gd name="adj1" fmla="val -11752"/>
+            <a:gd name="adj2" fmla="val 67996"/>
           </a:avLst>
         </a:prstGeom>
         <a:ln>
@@ -2868,16 +2868,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>581026</xdr:colOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>428625</xdr:colOff>
       <xdr:row>37</xdr:row>
-      <xdr:rowOff>28574</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
+      <xdr:rowOff>26961</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>123825</xdr:colOff>
       <xdr:row>54</xdr:row>
-      <xdr:rowOff>57149</xdr:rowOff>
+      <xdr:rowOff>55536</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -2889,18 +2889,18 @@
           </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
-          <a:stCxn id="52" idx="1"/>
-          <a:endCxn id="131" idx="1"/>
+          <a:stCxn id="52" idx="3"/>
+          <a:endCxn id="131" idx="3"/>
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm rot="10800000" flipV="1">
-          <a:off x="9115426" y="7077074"/>
-          <a:ext cx="38099" cy="3267075"/>
+        <a:xfrm>
+          <a:off x="11471167" y="7194927"/>
+          <a:ext cx="308675" cy="3321965"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector3">
           <a:avLst>
-            <a:gd name="adj1" fmla="val 700016"/>
+            <a:gd name="adj1" fmla="val 174058"/>
           </a:avLst>
         </a:prstGeom>
         <a:ln>
@@ -2928,40 +2928,97 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>171450</xdr:colOff>
+      <xdr:colOff>171451</xdr:colOff>
       <xdr:row>18</xdr:row>
       <xdr:rowOff>90487</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>581025</xdr:colOff>
+      <xdr:colOff>581026</xdr:colOff>
       <xdr:row>54</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
+      <xdr:rowOff>55537</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="139" name="Connector: Elbow 138">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B1776F35-CEB2-4B64-AB1D-25EC5BB9A9BD}"/>
+        <xdr:cNvPr id="45" name="Connector: Elbow 44">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{98B9FA19-FA1D-4EA2-A732-D19A9CE934E8}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
-          <a:stCxn id="3" idx="3"/>
-          <a:endCxn id="131" idx="1"/>
+          <a:stCxn id="131" idx="1"/>
+          <a:endCxn id="3" idx="3"/>
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm>
-          <a:off x="6877050" y="3519487"/>
-          <a:ext cx="2238375" cy="6824663"/>
+        <a:xfrm rot="10800000">
+          <a:off x="6919671" y="3577606"/>
+          <a:ext cx="2249999" cy="6939287"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 50000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>241517</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>42863</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>523876</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>36487</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="64" name="Connector: Elbow 63">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0EED43A2-EADE-4D6D-AB49-A5A8FB1A0FF7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="54" idx="1"/>
+          <a:endCxn id="63" idx="3"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="10800000">
+          <a:off x="2695415" y="5660999"/>
+          <a:ext cx="2122783" cy="4643115"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector3">
           <a:avLst/>
         </a:prstGeom>
         <a:ln>
-          <a:headEnd type="triangle"/>
           <a:tailEnd type="triangle"/>
         </a:ln>
       </xdr:spPr>
@@ -3284,8 +3341,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{51315553-DA18-4974-A7B4-E995DE6A4EDF}">
   <dimension ref="I8"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A26" workbookViewId="0">
-      <selection activeCell="P43" sqref="P43"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="59" zoomScaleNormal="59" workbookViewId="0">
+      <selection activeCell="O69" sqref="O69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
